--- a/blanco-meta/rest/Login.xlsx
+++ b/blanco-meta/rest/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F587206-D97E-374F-B6D6-0BF6CCE46082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A348D4-477E-1749-ACBE-49CBF4EBD718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="192">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2263,6 +2263,10 @@
   <si>
     <t>@field:Size(max = 254)
 @field:NotBlank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.ResponseHeader</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3564,69 +3568,90 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3651,56 +3676,69 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3709,40 +3747,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4213,8 +4217,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4257,95 +4261,95 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="155" t="s">
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="185" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="155"/>
+      <c r="E6" s="185"/>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="91.5" customHeight="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="156" t="s">
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="157"/>
+      <c r="E7" s="187"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155" t="s">
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="155"/>
+      <c r="E8" s="185"/>
       <c r="F8" s="82"/>
       <c r="G8" s="82"/>
       <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155" t="s">
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="155"/>
+      <c r="E10" s="185"/>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="155"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="82"/>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
@@ -4356,10 +4360,10 @@
       </c>
       <c r="B12" s="143"/>
       <c r="C12" s="143"/>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="145"/>
+      <c r="E12" s="162"/>
       <c r="F12" s="82" t="s">
         <v>131</v>
       </c>
@@ -4371,8 +4375,8 @@
       </c>
       <c r="B13" s="143"/>
       <c r="C13" s="143"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="50" t="s">
         <v>154</v>
       </c>
@@ -4385,10 +4389,10 @@
       </c>
       <c r="B14" s="143"/>
       <c r="C14" s="143"/>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="145"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="1" t="s">
         <v>167</v>
       </c>
@@ -4399,10 +4403,10 @@
       </c>
       <c r="B15" s="143"/>
       <c r="C15" s="143"/>
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="145"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="1" t="s">
         <v>169</v>
       </c>
@@ -4413,8 +4417,10 @@
       </c>
       <c r="B16" s="143"/>
       <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
+      <c r="D16" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="162"/>
       <c r="F16" s="1" t="s">
         <v>171</v>
       </c>
@@ -4425,28 +4431,28 @@
       </c>
       <c r="B17" s="143"/>
       <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="161"/>
       <c r="D18" s="101" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="179"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
       <c r="D19" s="87"/>
       <c r="E19" t="s">
         <v>134</v>
@@ -4464,15 +4470,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="156" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="190"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="158"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="88" t="s">
@@ -4520,28 +4526,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="187" t="s">
+      <c r="A26" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="183"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
       <c r="J27" s="92"/>
@@ -4552,12 +4558,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="103"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
       <c r="J28" s="99"/>
@@ -4568,12 +4574,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="104"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="G29" s="165"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
@@ -4584,12 +4590,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="105"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
@@ -4602,28 +4608,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="186"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="92"/>
       <c r="I33" s="92"/>
       <c r="J33" s="92"/>
@@ -4634,12 +4640,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="103"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
       <c r="H34" s="99"/>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
@@ -4650,12 +4656,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="104"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
       <c r="H35" s="99"/>
       <c r="I35" s="99"/>
       <c r="J35" s="99"/>
@@ -4666,12 +4672,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="105"/>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
       <c r="H36" s="99"/>
       <c r="I36" s="99"/>
       <c r="J36" s="99"/>
@@ -4696,28 +4702,28 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="186"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="154"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="170" t="s">
+      <c r="B39" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
       <c r="H39" s="92"/>
       <c r="I39" s="92"/>
       <c r="J39" s="92"/>
@@ -4728,12 +4734,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="103"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="174"/>
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="181"/>
       <c r="H40" s="99"/>
       <c r="I40" s="99"/>
       <c r="J40" s="99"/>
@@ -4744,12 +4750,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="104"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="175"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="99"/>
       <c r="I41" s="99"/>
       <c r="J41" s="99"/>
@@ -4760,12 +4766,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="105"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="176"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="183"/>
       <c r="H42" s="99"/>
       <c r="I42" s="99"/>
       <c r="J42" s="99"/>
@@ -4801,85 +4807,128 @@
       <c r="G44" s="120"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="180"/>
-      <c r="C45" s="151" t="s">
+      <c r="B45" s="148"/>
+      <c r="C45" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="152"/>
-      <c r="E45" s="153"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="193"/>
       <c r="F45" s="121" t="s">
         <v>155</v>
       </c>
       <c r="G45" s="120"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="146"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="150"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="173"/>
       <c r="F46" s="3"/>
       <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="146"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="150"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="173"/>
       <c r="F47" s="3"/>
       <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="146"/>
-      <c r="B48" s="147"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="150"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="173"/>
       <c r="F48" s="3"/>
       <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="146"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="150"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="172"/>
+      <c r="E49" s="173"/>
       <c r="F49" s="3"/>
       <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="146"/>
-      <c r="B50" s="147"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="150"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="173"/>
       <c r="F50" s="3"/>
       <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="146"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="150"/>
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="173"/>
       <c r="F51" s="3"/>
       <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="162"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="167"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="176"/>
       <c r="F52" s="112"/>
       <c r="G52" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A45:B45"/>
@@ -4896,49 +4945,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4973,7 +4979,7 @@
   </sheetPr>
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -5147,10 +5153,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="185"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
@@ -5177,10 +5183,10 @@
         <v>130</v>
       </c>
       <c r="B15" s="108"/>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="145"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="82" t="s">
         <v>131</v>
       </c>
@@ -5195,8 +5201,8 @@
         <v>132</v>
       </c>
       <c r="B16" s="108"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="51"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
@@ -5260,15 +5266,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5278,14 +5284,14 @@
       <c r="A21" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="181" t="s">
+      <c r="B21" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="183"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="92"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -5301,12 +5307,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="103"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
       <c r="H22" s="99"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5322,12 +5328,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="104"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
       <c r="H23" s="99"/>
       <c r="M23" s="99"/>
       <c r="N23" s="99"/>
@@ -5339,12 +5345,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="105"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
       <c r="H24" s="99"/>
       <c r="I24" s="92"/>
       <c r="J24" s="92"/>
@@ -5366,15 +5372,15 @@
       <c r="L25" s="92"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="186"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="154"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
       <c r="K26" s="92"/>
@@ -5384,14 +5390,14 @@
       <c r="A27" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="92"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -5409,14 +5415,14 @@
       <c r="A28" s="103">
         <v>1</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="99"/>
       <c r="M28" s="99"/>
       <c r="N28" s="99"/>
@@ -5430,14 +5436,14 @@
       <c r="A29" s="103">
         <v>2</v>
       </c>
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="99"/>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
@@ -5451,14 +5457,14 @@
       <c r="A30" s="103">
         <v>3</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="99"/>
       <c r="M30" s="99"/>
       <c r="N30" s="99"/>
@@ -5470,12 +5476,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="104"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="179"/>
       <c r="H31" s="99"/>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
@@ -5491,12 +5497,12 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="105"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
       <c r="H32" s="99"/>
       <c r="I32" s="99"/>
       <c r="J32" s="99"/>
@@ -5531,15 +5537,15 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="184" t="s">
+      <c r="A34" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="154"/>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
       <c r="K34" s="99"/>
@@ -5549,14 +5555,14 @@
       <c r="A35" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="170" t="s">
+      <c r="B35" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
       <c r="H35" s="92"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -5572,12 +5578,12 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="103"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="196"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="208"/>
       <c r="H36" s="99"/>
       <c r="M36" s="99"/>
       <c r="N36" s="99"/>
@@ -5589,12 +5595,12 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="104"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="194"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="206"/>
       <c r="H37" s="99"/>
       <c r="M37" s="99"/>
       <c r="N37" s="99"/>
@@ -5606,12 +5612,12 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="105"/>
-      <c r="B38" s="166"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="195"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="207"/>
       <c r="H38" s="99"/>
       <c r="M38" s="99"/>
       <c r="N38" s="99"/>
@@ -5673,74 +5679,74 @@
       <c r="X41" s="37"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="199" t="s">
+      <c r="A42" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="199" t="s">
+      <c r="B42" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="205" t="s">
+      <c r="C42" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="199" t="s">
+      <c r="D42" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="206" t="s">
+      <c r="E42" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="206" t="s">
+      <c r="F42" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="199" t="s">
+      <c r="G42" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="199" t="s">
+      <c r="H42" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="202" t="s">
+      <c r="I42" s="203" t="s">
         <v>174</v>
       </c>
-      <c r="J42" s="202" t="s">
+      <c r="J42" s="203" t="s">
         <v>175</v>
       </c>
-      <c r="K42" s="202" t="s">
+      <c r="K42" s="203" t="s">
         <v>176</v>
       </c>
-      <c r="L42" s="203" t="s">
+      <c r="L42" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="M42" s="199" t="s">
+      <c r="M42" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="N42" s="197" t="s">
+      <c r="N42" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="O42" s="198"/>
-      <c r="P42" s="197" t="s">
+      <c r="O42" s="201"/>
+      <c r="P42" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="198"/>
+      <c r="Q42" s="201"/>
       <c r="R42" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="S42" s="199" t="s">
+      <c r="S42" s="194" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="200"/>
-      <c r="B43" s="200"/>
-      <c r="C43" s="200"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="202"/>
-      <c r="J43" s="202"/>
-      <c r="K43" s="202"/>
-      <c r="L43" s="204"/>
-      <c r="M43" s="201"/>
+      <c r="A43" s="195"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="199"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="203"/>
+      <c r="K43" s="203"/>
+      <c r="L43" s="205"/>
+      <c r="M43" s="202"/>
       <c r="N43" s="28" t="s">
         <v>74</v>
       </c>
@@ -5756,7 +5762,7 @@
       <c r="R43" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="200"/>
+      <c r="S43" s="195"/>
     </row>
     <row r="44" spans="1:24" ht="45">
       <c r="A44" s="7">
@@ -6099,26 +6105,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -6135,6 +6121,26 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6328,10 +6334,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="185"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="M10" s="27"/>
@@ -6341,10 +6347,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="185"/>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="M11" s="27"/>
@@ -6354,10 +6360,10 @@
         <v>130</v>
       </c>
       <c r="B12" s="108"/>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="82" t="s">
         <v>131</v>
       </c>
@@ -6370,8 +6376,8 @@
         <v>132</v>
       </c>
       <c r="B13" s="108"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
       <c r="E13" s="51"/>
       <c r="F13" s="51"/>
       <c r="G13" s="50"/>
@@ -6409,15 +6415,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -6427,14 +6433,14 @@
       <c r="A17" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="183"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="92"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -6449,12 +6455,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="103"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="99"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -6469,12 +6475,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="104"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
       <c r="H19" s="99"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -6489,12 +6495,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="105"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
       <c r="H20" s="99"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -6517,15 +6523,15 @@
       <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="184" t="s">
+      <c r="A22" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="186"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="154"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -6536,14 +6542,14 @@
       <c r="A23" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="177" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="92"/>
       <c r="M23" s="99"/>
       <c r="N23" s="92"/>
@@ -6557,14 +6563,14 @@
       <c r="A24" s="103">
         <v>1</v>
       </c>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="99"/>
       <c r="I24" s="92"/>
       <c r="J24" s="92"/>
@@ -6581,14 +6587,14 @@
       <c r="A25" s="103">
         <v>2</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="99"/>
       <c r="I25" s="92"/>
       <c r="J25" s="92"/>
@@ -6605,14 +6611,14 @@
       <c r="A26" s="104">
         <v>3</v>
       </c>
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="99"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
@@ -6629,14 +6635,14 @@
       <c r="A27" s="103">
         <v>4</v>
       </c>
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="99"/>
       <c r="M27" s="99"/>
       <c r="N27" s="99"/>
@@ -6648,12 +6654,12 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="104"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="99"/>
       <c r="I28" s="92"/>
       <c r="J28" s="92"/>
@@ -6669,12 +6675,12 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="105"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
       <c r="H29" s="99"/>
       <c r="I29" s="92"/>
       <c r="J29" s="92"/>
@@ -6709,29 +6715,29 @@
       <c r="R30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="186"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
       <c r="M31" s="99"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="92"/>
       <c r="I32" s="92"/>
       <c r="J32" s="92"/>
@@ -6747,12 +6753,12 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="103"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="196"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="208"/>
       <c r="H33" s="99"/>
       <c r="I33" s="99"/>
       <c r="J33" s="99"/>
@@ -6768,12 +6774,12 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="104"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="194"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="206"/>
       <c r="H34" s="99"/>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
@@ -6788,12 +6794,12 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="105"/>
-      <c r="B35" s="166"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="195"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="207"/>
       <c r="H35" s="99"/>
       <c r="I35" s="99"/>
       <c r="J35" s="99"/>
@@ -6855,28 +6861,28 @@
       <c r="S38" s="54"/>
     </row>
     <row r="39" spans="1:20" ht="15">
-      <c r="A39" s="206" t="s">
+      <c r="A39" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="206" t="s">
+      <c r="B39" s="197" t="s">
         <v>96</v>
       </c>
       <c r="C39" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="206" t="s">
+      <c r="D39" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="206" t="s">
+      <c r="E39" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="206" t="s">
+      <c r="F39" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="206" t="s">
+      <c r="G39" s="197" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="206" t="s">
+      <c r="H39" s="197" t="s">
         <v>108</v>
       </c>
       <c r="I39" s="213" t="s">
@@ -6888,10 +6894,10 @@
       <c r="K39" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="L39" s="203" t="s">
+      <c r="L39" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="199" t="s">
+      <c r="M39" s="194" t="s">
         <v>148</v>
       </c>
       <c r="N39" s="212" t="s">
@@ -6905,7 +6911,7 @@
       <c r="R39" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="S39" s="206" t="s">
+      <c r="S39" s="197" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6916,15 +6922,15 @@
         <v>98</v>
       </c>
       <c r="D40" s="211"/>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="199"/>
       <c r="G40" s="211"/>
       <c r="H40" s="211"/>
       <c r="I40" s="214"/>
       <c r="J40" s="216"/>
       <c r="K40" s="216"/>
       <c r="L40" s="217"/>
-      <c r="M40" s="201"/>
+      <c r="M40" s="202"/>
       <c r="N40" s="58" t="s">
         <v>103</v>
       </c>
@@ -7194,27 +7200,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B34:G34"/>
@@ -7231,6 +7216,27 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
